--- a/data/reg_dif_med_results/difmedias_entre_anos_2015x2011.xlsx
+++ b/data/reg_dif_med_results/difmedias_entre_anos_2015x2011.xlsx
@@ -417,7 +417,7 @@
     <t>(0.006)</t>
   </si>
   <si>
-    <t>5.797</t>
+    <t>5.794</t>
   </si>
   <si>
     <t>(0.045)</t>
@@ -543,7 +543,7 @@
     <t>0.129***</t>
   </si>
   <si>
-    <t>0.368***</t>
+    <t>0.365***</t>
   </si>
   <si>
     <t>0.001*</t>
